--- a/3DGame202509/その他作業/設計.xlsx
+++ b/3DGame202509/その他作業/設計.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10F8F7-A419-4A1B-8D8F-B7063841BD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1500" yWindow="1590" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="当たり判定" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲームルール" sheetId="2" r:id="rId2"/>
+    <sheet name="シーン" sheetId="3" r:id="rId3"/>
+    <sheet name="UI" sheetId="4" r:id="rId4"/>
+    <sheet name="サウンド" sheetId="5" r:id="rId5"/>
+    <sheet name="エフェクト" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,13 +30,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +71,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +348,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ECE93A-C9F6-4634-9703-540F5D387257}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F1F31-138D-4D60-BAF9-61356AAEDD1F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F12EC4-2804-4B26-B52A-EC3A114BD894}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADBD0E3-1BF4-4D38-8B10-32098A5D8CA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C3238F-A954-4362-84B8-6B68373CA929}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>